--- a/biology/Médecine/1506_en_santé_et_médecine/1506_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1506_en_santé_et_médecine/1506_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1506 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 avril : fondation à Urbino, en Italie, d'une université dont la faculté de médecine ne s'ouvrira qu'en 1564[1].
-Hiver très rude dans le Sud de la France : la mer gèle à Marseille[2].
-Fondation à Francfort-sur-l'Oder, en Brandebourg, d'une université qui comprend, dès l'origine, une faculté de médecine[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 avril : fondation à Urbino, en Italie, d'une université dont la faculté de médecine ne s'ouvrira qu'en 1564.
+Hiver très rude dans le Sud de la France : la mer gèle à Marseille.
+Fondation à Francfort-sur-l'Oder, en Brandebourg, d'une université qui comprend, dès l'origine, une faculté de médecine.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Deschamps édite le De natura hominis de Symphorien Champier, ouvrage consacré à Hippocrate[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Deschamps édite le De natura hominis de Symphorien Champier, ouvrage consacré à Hippocrate.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Moïse Alfandéry, « médecin juif d'Avignon pendant la peste de 1506[5] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Moïse Alfandéry, « médecin juif d'Avignon pendant la peste de 1506 ».</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Giulio Alessandrini (mort en 1590), médecin des empereurs Ferdinand Ier, Maximilien II et Rodolphe II[6].
-Vers 1506 : Jean Fernel (mort en 1558), astronome, mathématicien et Premier médecin du roi Henri II[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Giulio Alessandrini (mort en 1590), médecin des empereurs Ferdinand Ier, Maximilien II et Rodolphe II.
+Vers 1506 : Jean Fernel (mort en 1558), astronome, mathématicien et Premier médecin du roi Henri II.</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1506_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1506_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,10 +654,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>22 octobre : Jacques Coitier (né vers 1430), Premier médecin du roi Louis XI[8].
-Gongmen Kunchog Deleg (né en 1447), médecin tibétain[9].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22 octobre : Jacques Coitier (né vers 1430), Premier médecin du roi Louis XI.
+Gongmen Kunchog Deleg (né en 1447), médecin tibétain.</t>
         </is>
       </c>
     </row>
